--- a/测试.xlsx
+++ b/测试.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="new_2" localSheetId="0">Sheet1!$B$2:$Q$19</definedName>
+    <definedName name="new_2" localSheetId="0">Sheet1!$B$2:$R$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -225,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,12 +291,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -304,246 +310,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -827,18 +593,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="C18:H20"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="17" width="8.625" customWidth="1"/>
+    <col min="2" max="18" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,27 +626,28 @@
       <c r="H1" s="7">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="12">
-        <v>1</v>
-      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="12">
+        <v>1</v>
+      </c>
+      <c r="L1" s="12">
         <v>3</v>
       </c>
-      <c r="L1" s="12">
-        <v>4</v>
-      </c>
       <c r="M1" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N1" s="12">
+        <v>5</v>
+      </c>
+      <c r="O1" s="12">
         <v>10</v>
       </c>
-      <c r="O1" s="12">
+      <c r="P1" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -905,31 +672,32 @@
       <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13">
+      <c r="I2" s="22"/>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13">
         <v>3</v>
       </c>
-      <c r="L2" s="13">
-        <v>4</v>
-      </c>
       <c r="M2" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" s="13">
+        <v>5</v>
+      </c>
+      <c r="O2" s="13">
         <v>10</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="Q2">
-        <v>1</v>
-      </c>
+      <c r="P2" s="14"/>
       <c r="R2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -954,25 +722,26 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-      <c r="Q3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+      <c r="R3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -997,27 +766,28 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="22"/>
+      <c r="J4" s="6">
         <v>2</v>
       </c>
-      <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="13">
-        <v>4</v>
-      </c>
-      <c r="M4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13">
+        <v>4</v>
+      </c>
       <c r="N4" s="13"/>
-      <c r="O4" s="14">
+      <c r="O4" s="13"/>
+      <c r="P4" s="14">
         <v>11</v>
       </c>
-      <c r="Q4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1042,25 +812,26 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="22"/>
+      <c r="J5" s="6">
         <v>3</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13">
         <v>3</v>
       </c>
-      <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-      <c r="Q5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+      <c r="R5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1085,25 +856,26 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="13"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="6">
+        <v>4</v>
+      </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="13">
-        <v>4</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13">
+        <v>4</v>
+      </c>
       <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
-      <c r="Q6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1128,25 +900,26 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="6">
-        <v>5</v>
-      </c>
-      <c r="J7" s="13"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="6">
+        <v>5</v>
+      </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="13">
-        <v>5</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="Q7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M7" s="13"/>
+      <c r="N7" s="13">
+        <v>5</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+      <c r="R7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1171,29 +944,30 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="22"/>
+      <c r="J8" s="6">
         <v>6</v>
       </c>
-      <c r="J8" s="13">
-        <v>1</v>
-      </c>
       <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
         <v>3</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13">
-        <v>5</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="Q8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M8" s="13"/>
+      <c r="N8" s="13">
+        <v>5</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="R8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1218,31 +992,32 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="22"/>
+      <c r="J9" s="6">
         <v>7</v>
       </c>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
       <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
         <v>3</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13">
-        <v>5</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
+        <v>5</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14">
         <v>11</v>
       </c>
-      <c r="Q9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1267,27 +1042,28 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="22"/>
+      <c r="J10" s="6">
         <v>8</v>
       </c>
-      <c r="J10" s="13">
-        <v>1</v>
-      </c>
       <c r="K10" s="13">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
         <v>3</v>
       </c>
-      <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="Q10" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1312,27 +1088,28 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="22"/>
+      <c r="J11" s="6">
         <v>9</v>
       </c>
-      <c r="J11" s="13">
-        <v>1</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13">
-        <v>4</v>
-      </c>
-      <c r="M11" s="13"/>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13">
+        <v>4</v>
+      </c>
       <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
-      <c r="Q11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1357,25 +1134,26 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="22"/>
+      <c r="J12" s="6">
         <v>10</v>
       </c>
-      <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="13">
+      <c r="N12" s="13"/>
+      <c r="O12" s="13">
         <v>10</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="Q12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P12" s="14"/>
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1400,25 +1178,26 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="22"/>
+      <c r="J13" s="6">
         <v>11</v>
       </c>
-      <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="14">
+      <c r="O13" s="13"/>
+      <c r="P13" s="14">
         <v>11</v>
       </c>
-      <c r="Q13" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1443,31 +1222,32 @@
       <c r="H14" s="15">
         <v>0</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="23"/>
+      <c r="J14" s="19">
         <v>12</v>
       </c>
-      <c r="J14" s="20">
-        <v>1</v>
-      </c>
       <c r="K14" s="20">
+        <v>1</v>
+      </c>
+      <c r="L14" s="20">
         <v>3</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20">
-        <v>5</v>
-      </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21">
+      <c r="M14" s="20"/>
+      <c r="N14" s="20">
+        <v>5</v>
+      </c>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21">
         <v>11</v>
       </c>
-      <c r="Q14" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1492,29 +1272,30 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="22"/>
+      <c r="J15" s="6">
         <v>13</v>
       </c>
-      <c r="J15" s="13">
-        <v>1</v>
-      </c>
       <c r="K15" s="13">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
         <v>3</v>
       </c>
-      <c r="L15" s="13">
-        <v>4</v>
-      </c>
-      <c r="M15" s="13"/>
+      <c r="M15" s="13">
+        <v>4</v>
+      </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="Q15" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+      <c r="R15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1539,33 +1320,34 @@
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="22"/>
+      <c r="J16" s="6">
         <v>14</v>
       </c>
-      <c r="J16" s="13">
-        <v>1</v>
-      </c>
       <c r="K16" s="13">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
         <v>3</v>
       </c>
-      <c r="L16" s="13">
-        <v>4</v>
-      </c>
       <c r="M16" s="13">
-        <v>5</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14">
+        <v>4</v>
+      </c>
+      <c r="N16" s="13">
+        <v>5</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14">
         <v>11</v>
       </c>
-      <c r="Q16" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1590,27 +1372,28 @@
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="22"/>
+      <c r="J17" s="6">
         <v>15</v>
       </c>
-      <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="13">
-        <v>4</v>
-      </c>
+      <c r="L17" s="11"/>
       <c r="M17" s="13">
-        <v>5</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-      <c r="Q17" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="N17" s="13">
+        <v>5</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+      <c r="R17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1637,8 +1420,9 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
@@ -1658,14 +1442,15 @@
         <v>8</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C20" s="8">
         <v>10</v>
       </c>
@@ -1684,73 +1469,71 @@
       <c r="H20" s="9">
         <v>5</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" s="9"/>
+      <c r="K20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="16">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="16">
         <v>0</v>
       </c>
       <c r="Q23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="16">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>1</v>
-      </c>
-      <c r="T23" s="10">
+        <v>1</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1</v>
+      </c>
+      <c r="U23" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="16">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24" s="16">
         <v>0</v>
       </c>
       <c r="O24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="16">
         <v>0</v>
       </c>
       <c r="R24" s="16">
-        <v>1</v>
-      </c>
-      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6">
         <v>3</v>
       </c>
-      <c r="T24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" s="16">
+      <c r="U24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25" s="16">
@@ -1760,33 +1543,33 @@
         <v>0</v>
       </c>
       <c r="P25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="16">
         <v>1</v>
       </c>
       <c r="R25" s="16">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>4</v>
-      </c>
-      <c r="T25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="16">
+        <v>1</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6">
+        <v>4</v>
+      </c>
+      <c r="U25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M26">
         <v>0</v>
       </c>
       <c r="N26" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="16">
         <v>0</v>
@@ -1795,24 +1578,24 @@
         <v>0</v>
       </c>
       <c r="R26" s="16">
-        <v>1</v>
-      </c>
-      <c r="S26" s="6">
-        <v>5</v>
-      </c>
-      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <v>1</v>
+      </c>
+      <c r="T26" s="6">
+        <v>5</v>
+      </c>
+      <c r="U26" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27" s="16">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M27">
         <v>1</v>
       </c>
       <c r="N27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="16">
         <v>0</v>
@@ -1824,27 +1607,27 @@
         <v>0</v>
       </c>
       <c r="R27" s="16">
-        <v>1</v>
-      </c>
-      <c r="S27" s="6">
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <v>1</v>
+      </c>
+      <c r="T27" s="6">
         <v>10</v>
       </c>
-      <c r="T27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" s="16">
+      <c r="U27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M28">
         <v>0</v>
       </c>
       <c r="N28" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="16">
         <v>0</v>
@@ -1855,14 +1638,17 @@
       <c r="R28" s="16">
         <v>0</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28" s="16">
+        <v>0</v>
+      </c>
+      <c r="T28" s="6">
         <v>11</v>
       </c>
-      <c r="T28" s="9">
+      <c r="U28" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>1</v>
       </c>
@@ -1881,11 +1667,12 @@
       <c r="H31" s="2">
         <v>1</v>
       </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I31" s="22"/>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>0</v>
       </c>
@@ -1904,11 +1691,12 @@
       <c r="H32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="22"/>
+      <c r="J32" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>0</v>
       </c>
@@ -1927,14 +1715,15 @@
       <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="6">
-        <v>4</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I33" s="22"/>
+      <c r="J33" s="6">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>0</v>
       </c>
@@ -1953,14 +1742,15 @@
       <c r="H34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="6">
-        <v>5</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I34" s="22"/>
+      <c r="J34" s="6">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>1</v>
       </c>
@@ -1979,14 +1769,15 @@
       <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="22"/>
+      <c r="J35" s="6">
         <v>10</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>1</v>
       </c>
@@ -2005,24 +1796,25 @@
       <c r="H36" s="2">
         <v>1</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="22"/>
+      <c r="J36" s="6">
         <v>15</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
         <v>12</v>
       </c>
@@ -2050,11 +1842,12 @@
         <f>H31</f>
         <v>1</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="18" t="s">
         <v>12</v>
       </c>
@@ -2082,11 +1875,12 @@
         <f t="shared" ref="H40:H44" si="3">H32</f>
         <v>0</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="17"/>
+      <c r="J40" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="18" t="s">
         <v>12</v>
       </c>
@@ -2114,11 +1908,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="17"/>
+      <c r="J41" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="18" t="s">
         <v>12</v>
       </c>
@@ -2146,11 +1941,12 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="17"/>
+      <c r="J42" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="18" t="s">
         <v>12</v>
       </c>
@@ -2178,11 +1974,12 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="17"/>
+      <c r="J43" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="18" t="s">
         <v>12</v>
       </c>
@@ -2210,13 +2007,14 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="17"/>
+      <c r="J44" s="18" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J2:O17">
+  <conditionalFormatting sqref="K2:P17">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
